--- a/data/Map116.xlsx
+++ b/data/Map116.xlsx
@@ -620,7 +620,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,95 +628,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -724,12 +727,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -737,12 +740,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -750,67 +753,67 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -818,122 +821,122 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -941,17 +944,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -959,27 +962,27 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -987,7 +990,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -995,7 +998,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>79</v>
       </c>

--- a/data/Map116.xlsx
+++ b/data/Map116.xlsx
@@ -620,7 +620,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,22 +628,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -654,72 +654,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -727,12 +727,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -740,12 +740,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -753,67 +753,67 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -821,168 +821,174 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -990,7 +996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>79</v>
       </c>

--- a/data/Map116.xlsx
+++ b/data/Map116.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>自動実行</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>EV003</t>
+  </si>
+  <si>
+    <t>--------キャラ指定-----座標設定------------</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
   </si>
   <si>
     <t>何か使えるものは・・・</t>
@@ -80,7 +86,17 @@
     <t xml:space="preserve"> &lt;enemy:99&gt;&lt;ch:1.5&gt;</t>
   </si>
   <si>
+    <t>灯り 5 3 255 0.3</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あっつ！！！</t>
+  </si>
+  <si>
+    <t>変数203（ARGP攻撃種類）
+1斬　2打撃　3水　4火　5雷
+6誘惑　7食べ物
+特殊206（個別攻撃種類）
+1リンゴ　2皿　3卵</t>
   </si>
   <si>
     <t xml:space="preserve"> &lt;enemy:99&gt;&lt;cw:1.5&gt;&lt;ch:1.5&gt;</t>
@@ -620,7 +636,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,98 +644,137 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -727,12 +782,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -740,12 +798,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -753,67 +811,100 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -821,174 +912,255 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="D59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
-      <c r="D62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -996,7 +1168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1004,7 +1176,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1012,7 +1184,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1020,7 +1192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1028,7 +1200,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1036,7 +1208,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1044,7 +1216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1052,7 +1224,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1060,7 +1232,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1068,7 +1240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1076,7 +1248,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1084,7 +1256,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1092,9 +1264,44 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map116.xlsx
+++ b/data/Map116.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1FCB3D-E7A0-4620-9976-8D66161951B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="135">
   <si>
     <t>自動実行</t>
   </si>
@@ -299,18 +305,193 @@
     <t>ライムの日記
 脱走者</t>
   </si>
+  <si>
+    <t>Soap…
+There isn't a whole lot left…</t>
+  </si>
+  <si>
+    <t>Anything useful…</t>
+  </si>
+  <si>
+    <t>You found the pantry key!
+And also…</t>
+  </si>
+  <si>
+    <t>You found Shina's panties…</t>
+  </si>
+  <si>
+    <t>\C[10]I just want to…</t>
+  </si>
+  <si>
+    <t>I've got a bad feeling…</t>
+  </si>
+  <si>
+    <t>...
+Sniiiiiff…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Those are my panties,nyan.
+What exactly are you doing with them, nya?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hmmmm...
+Are you whacking it while you sniff them, nya?
+You filthy masochist.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;But that's ok, nya.
+You can have them, nyaan.
+A little gift from me, nya♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;But not for you. For your cock!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;But not for you. For your cock, nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Hot!!!</t>
+  </si>
+  <si>
+    <t>A box of cleaning tools…
+There might be something useful inside…</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Not right now</t>
+  </si>
+  <si>
+    <t>Doesn't seem to be anything else useful…</t>
+  </si>
+  <si>
+    <t>A mop handle with no head…
+This could come in useful.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Bath time～♪</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I'm coming in too, nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ah-, then I might as well come too-♥</t>
+  </si>
+  <si>
+    <t>The bathroom mirror is all fogged up…</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;At least one of us should probably keep searching…</t>
+  </si>
+  <si>
+    <t>A bucket of water…</t>
+  </si>
+  <si>
+    <t>The pages are damp from the humidity…</t>
+  </si>
+  <si>
+    <t>Why is there a grilled fish in the bathroom…</t>
+  </si>
+  <si>
+    <t>Why is there a pie in the bathroom…</t>
+  </si>
+  <si>
+    <t>Firewood.
+Won't it get damp if it's left in here?</t>
+  </si>
+  <si>
+    <t>These towels smell nice.
+Probably not a good idea to smell for too long…</t>
+  </si>
+  <si>
+    <t>You see yourself in the mirror…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(What a huge bath…
+It's really remarkable.
+Somebody rich must have lived here.)</t>
+  </si>
+  <si>
+    <t>A giant tub.
+You'd hurt your neck if you fell in…</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;\n[1]...
+Do we really need to fight?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;...
+I see.
+Then there's nothing else for it.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;No hard feelings though!
+I'm not going to lose!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Haah... Haah...♥
+I'm m-melting...♥
+Ahaaah～...♥</t>
+  </si>
+  <si>
+    <t>Defeated Lime!</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Pizza in the Bath</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Don't read</t>
+  </si>
+  <si>
+    <t>Lime's Diary
+Pointless Argument</t>
+  </si>
+  <si>
+    <t>It sounded like papers falling…</t>
+  </si>
+  <si>
+    <t>Nothing else useful…</t>
+  </si>
+  <si>
+    <t>A disaster recovery book…</t>
+  </si>
+  <si>
+    <t>\n[1] learned \C[3]『Caution』\C[0]!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I'm looking a little gaunt...
+But I was meaning to go on a diet anyway.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Looking a little haggard…)</t>
+  </si>
+  <si>
+    <t>Lime's Diary
+Fugitive</t>
+  </si>
+  <si>
+    <t>You can't imagine any way this will end well...
+You put them away.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(They attached that awful thing to my body…
+Will I ever be allowed in a women's bath again…?)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -321,28 +502,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -632,19 +825,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="67.85546875" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -660,15 +855,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -676,113 +874,149 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -790,7 +1024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -798,25 +1032,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -824,7 +1061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -832,7 +1069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -840,7 +1077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -848,7 +1085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -856,87 +1093,117 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -944,55 +1211,73 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1000,39 +1285,51 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1040,31 +1337,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1072,63 +1378,84 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1136,23 +1463,29 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1160,39 +1493,51 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1200,7 +1545,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1208,7 +1553,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1216,7 +1561,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1224,7 +1569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1232,7 +1577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1240,7 +1585,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1248,7 +1593,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1256,7 +1601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1264,7 +1609,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1272,7 +1617,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1280,7 +1625,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -1288,7 +1633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1296,26 +1641,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="C84" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>